--- a/exposan/bwaise/results/sysC_lca.xlsx
+++ b/exposan/bwaise/results/sysC_lca.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
   <si>
     <t>Quantity</t>
   </si>
@@ -88,7 +88,10 @@
     <t>Transportation</t>
   </si>
   <si>
-    <t>Trucking [tonne*km]</t>
+    <t>item31 [tonne*km]</t>
+  </si>
+  <si>
+    <t>item32 [tonne*km]</t>
   </si>
   <si>
     <t>C3</t>
@@ -130,7 +133,7 @@
     <t>Other</t>
   </si>
   <si>
-    <t>e_item [kWh]</t>
+    <t>E_item [kWh]</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1005,13 +1008,13 @@
         <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30">
         <v>9329531.894329507</v>
       </c>
       <c r="D30">
-        <v>0.1906759318900599</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>1809929.187499924</v>
@@ -1023,303 +1026,251 @@
     <row r="31" spans="1:6">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C31">
+        <v>9329531.894329507</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1809929.187499924</v>
+      </c>
+      <c r="F31">
+        <v>0.1906759318900599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32">
         <v>39599201.80504864</v>
       </c>
-      <c r="D31">
-        <v>0.8093240681099402</v>
-      </c>
-      <c r="E31">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
         <v>7682245.150179437</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <v>0.8093240681099401</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32">
-        <v>48928733.69937815</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>9492174.33767936</v>
-      </c>
-      <c r="F32">
-        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C33">
-        <v>9329531.894329507</v>
+        <v>39599201.80504864</v>
       </c>
       <c r="D33">
-        <v>0.09533796594502995</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>1809929.187499924</v>
+        <v>7682245.150179437</v>
       </c>
       <c r="F33">
-        <v>0.1906759318900599</v>
+        <v>0.8093240681099401</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34">
-        <v>39599201.80504864</v>
-      </c>
-      <c r="D34">
-        <v>0.4046620340549701</v>
+        <v>22</v>
       </c>
       <c r="E34">
-        <v>7682245.150179437</v>
+        <v>9492174.337679362</v>
       </c>
       <c r="F34">
-        <v>0.8093240681099401</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35">
-        <v>48928733.69937815</v>
-      </c>
-      <c r="D35">
-        <v>0.5</v>
-      </c>
-      <c r="E35">
-        <v>9492174.33767936</v>
-      </c>
-      <c r="F35">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36">
-        <v>97857467.3987563</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>18984348.67535872</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37">
-        <v>9492174.337679362</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38">
+        <v>1737293.784823114</v>
+      </c>
+      <c r="C38">
+        <v>48644225.97504719</v>
+      </c>
+      <c r="D38">
+        <v>26.64626608726223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39">
+        <v>8403.78499228281</v>
+      </c>
+      <c r="C39">
+        <v>2227003.022954945</v>
+      </c>
+      <c r="D39">
+        <v>1.219904601981638</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
+      </c>
+      <c r="B40">
+        <v>2131620.428339369</v>
+      </c>
+      <c r="C40">
+        <v>-3197430.642509053</v>
+      </c>
+      <c r="D40">
+        <v>-1.751484086509394</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B41">
-        <v>1736500.496966978</v>
+        <v>6956428.727934339</v>
       </c>
       <c r="C41">
-        <v>48622013.91507538</v>
+        <v>-37564715.13084543</v>
       </c>
       <c r="D41">
-        <v>26.96215518840097</v>
+        <v>-20.57714712907902</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B42">
-        <v>8403.78499228281</v>
+        <v>253054.820244666</v>
       </c>
       <c r="C42">
-        <v>2227003.022954945</v>
+        <v>-1239968.619198864</v>
       </c>
       <c r="D42">
-        <v>1.234930359215998</v>
+        <v>-0.6792282764243533</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B43">
-        <v>2131620.428339369</v>
+        <v>764232.3653726361</v>
       </c>
       <c r="C43">
-        <v>-3197430.642509053</v>
+        <v>-1146348.548058954</v>
       </c>
       <c r="D43">
-        <v>-1.773057392029338</v>
+        <v>-0.6279452047606762</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B44">
-        <v>6956428.727934339</v>
+        <v>619130.716348963</v>
       </c>
       <c r="C44">
-        <v>-37564715.13084543</v>
+        <v>-3343305.8682844</v>
       </c>
       <c r="D44">
-        <v>-20.83059909313834</v>
+        <v>-1.8313914137129</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B45">
-        <v>253054.820244666</v>
+        <v>521205.1277046214</v>
       </c>
       <c r="C45">
-        <v>-1239968.619198864</v>
+        <v>-2553905.125752645</v>
       </c>
       <c r="D45">
-        <v>-0.6875944381485458</v>
+        <v>-1.398974578757533</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46">
-        <v>764232.3653726361</v>
+        <v>16</v>
       </c>
       <c r="C46">
-        <v>-1146348.548058954</v>
+        <v>1825555.063352786</v>
       </c>
       <c r="D46">
-        <v>-0.6356797048091942</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47">
-        <v>619130.716348963</v>
-      </c>
-      <c r="C47">
-        <v>-3343305.8682844</v>
-      </c>
-      <c r="D47">
-        <v>-1.853948950375062</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48">
-        <v>521205.1277046214</v>
-      </c>
-      <c r="C48">
-        <v>-2553905.125752645</v>
-      </c>
-      <c r="D48">
-        <v>-1.416205969116505</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50">
+        <v>456960</v>
+      </c>
+      <c r="C50">
+        <v>68544</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C49">
-        <v>1803343.003380991</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B53">
-        <v>456960</v>
-      </c>
-      <c r="C53">
+      <c r="C51">
         <v>68544</v>
       </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54">
-        <v>68544</v>
-      </c>
-      <c r="D54">
+      <c r="D51">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -1330,7 +1281,8 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exposan/bwaise/results/sysC_lca.xlsx
+++ b/exposan/bwaise/results/sysC_lca.xlsx
@@ -1020,7 +1020,7 @@
         <v>1809929.187499924</v>
       </c>
       <c r="F30">
-        <v>0.1906759318900599</v>
+        <v>0.700735989623113</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1038,7 +1038,7 @@
         <v>1809929.187499924</v>
       </c>
       <c r="F31">
-        <v>0.1906759318900599</v>
+        <v>0.700735989623113</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1049,16 +1049,16 @@
         <v>27</v>
       </c>
       <c r="C32">
-        <v>39599201.80504864</v>
+        <v>3984372.389860813</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>7682245.150179437</v>
+        <v>772968.2436329977</v>
       </c>
       <c r="F32">
-        <v>0.8093240681099401</v>
+        <v>0.2992640103768871</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1067,16 +1067,16 @@
         <v>18</v>
       </c>
       <c r="C33">
-        <v>39599201.80504864</v>
+        <v>3984372.389860813</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>7682245.150179437</v>
+        <v>772968.2436329977</v>
       </c>
       <c r="F33">
-        <v>0.8093240681099401</v>
+        <v>0.2992640103768871</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1087,7 +1087,7 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>9492174.337679362</v>
+        <v>2582897.431132922</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1112,13 +1112,13 @@
         <v>30</v>
       </c>
       <c r="B38">
-        <v>1737293.784823114</v>
+        <v>1736697.289069314</v>
       </c>
       <c r="C38">
-        <v>48644225.97504719</v>
+        <v>48627524.0939408</v>
       </c>
       <c r="D38">
-        <v>26.64626608726223</v>
+        <v>26.88306854929533</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1132,7 +1132,7 @@
         <v>2227003.022954945</v>
       </c>
       <c r="D39">
-        <v>1.219904601981638</v>
+        <v>1.231168480014091</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1146,7 +1146,7 @@
         <v>-3197430.642509053</v>
       </c>
       <c r="D40">
-        <v>-1.751484086509394</v>
+        <v>-1.767656255295524</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1160,7 +1160,7 @@
         <v>-37564715.13084543</v>
       </c>
       <c r="D41">
-        <v>-20.57714712907902</v>
+        <v>-20.76714434291137</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1174,7 +1174,7 @@
         <v>-1239968.619198864</v>
       </c>
       <c r="D42">
-        <v>-0.6792282764243533</v>
+        <v>-0.6854998688500307</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1188,7 +1188,7 @@
         <v>-1146348.548058954</v>
       </c>
       <c r="D43">
-        <v>-0.6279452047606762</v>
+        <v>-0.6337432796150525</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1202,7 +1202,7 @@
         <v>-3343305.8682844</v>
       </c>
       <c r="D44">
-        <v>-1.8313914137129</v>
+        <v>-1.848301399526736</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1216,7 +1216,7 @@
         <v>-2553905.125752645</v>
       </c>
       <c r="D45">
-        <v>-1.398974578757533</v>
+        <v>-1.411891883110701</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1224,7 +1224,7 @@
         <v>16</v>
       </c>
       <c r="C46">
-        <v>1825555.063352786</v>
+        <v>1808853.182246394</v>
       </c>
       <c r="D46">
         <v>1</v>

--- a/exposan/bwaise/results/sysC_lca.xlsx
+++ b/exposan/bwaise/results/sysC_lca.xlsx
@@ -88,10 +88,10 @@
     <t>Transportation</t>
   </si>
   <si>
-    <t>item31 [tonne*km]</t>
-  </si>
-  <si>
-    <t>item32 [tonne*km]</t>
+    <t>item37 [tonne*km]</t>
+  </si>
+  <si>
+    <t>item38 [tonne*km]</t>
   </si>
   <si>
     <t>C3</t>
@@ -534,7 +534,7 @@
         <v>22891346.709</v>
       </c>
       <c r="F2">
-        <v>0.5034537371838439</v>
+        <v>0.5037830471089566</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -552,7 +552,7 @@
         <v>22891346.709</v>
       </c>
       <c r="F3">
-        <v>0.5034537371838439</v>
+        <v>0.5037830471089566</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -572,7 +572,7 @@
         <v>6165004.5</v>
       </c>
       <c r="F4">
-        <v>0.1355881152269613</v>
+        <v>0.1356768036381773</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -590,7 +590,7 @@
         <v>6165004.5</v>
       </c>
       <c r="F5">
-        <v>0.1355881152269613</v>
+        <v>0.1356768036381773</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -610,7 +610,7 @@
         <v>1817442</v>
       </c>
       <c r="F6">
-        <v>0.03997134719274237</v>
+        <v>0.03999749251728465</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -628,7 +628,7 @@
         <v>1817442</v>
       </c>
       <c r="F7">
-        <v>0.03997134719274237</v>
+        <v>0.03999749251728465</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -648,7 +648,7 @@
         <v>7377.6</v>
       </c>
       <c r="F8">
-        <v>0.0001622569584334334</v>
+        <v>0.0001623630909792551</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -666,7 +666,7 @@
         <v>12221.8</v>
       </c>
       <c r="F9">
-        <v>0.0002687963693588344</v>
+        <v>0.000268972189510174</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -684,7 +684,7 @@
         <v>19599.4</v>
       </c>
       <c r="F10">
-        <v>0.0004310533277922679</v>
+        <v>0.0004313352804894291</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -704,7 +704,7 @@
         <v>137000.1</v>
       </c>
       <c r="F11">
-        <v>0.003013069227265808</v>
+        <v>0.003015040080848384</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -722,7 +722,7 @@
         <v>137000.1</v>
       </c>
       <c r="F12">
-        <v>0.003013069227265808</v>
+        <v>0.003015040080848384</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -742,7 +742,7 @@
         <v>141692.353425</v>
       </c>
       <c r="F13">
-        <v>0.003116266848299662</v>
+        <v>0.003118305203617442</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -760,7 +760,7 @@
         <v>8943.748476923076</v>
       </c>
       <c r="F14">
-        <v>0.0001967015594311417</v>
+        <v>0.0001968302222476463</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -778,7 +778,7 @@
         <v>22580.19376941176</v>
       </c>
       <c r="F15">
-        <v>0.0004966104914690844</v>
+        <v>0.0004969353252158168</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -796,7 +796,7 @@
         <v>173216.2956713349</v>
       </c>
       <c r="F16">
-        <v>0.003809578899199889</v>
+        <v>0.003812070751080905</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -816,7 +816,7 @@
         <v>296331.2163</v>
       </c>
       <c r="F17">
-        <v>0.006517268738575942</v>
+        <v>0.006521531694875055</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -834,7 +834,7 @@
         <v>296331.2163</v>
       </c>
       <c r="F18">
-        <v>0.006517268738575942</v>
+        <v>0.006521531694875055</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -854,7 +854,7 @@
         <v>10525573.832895</v>
       </c>
       <c r="F19">
-        <v>0.2314909450081434</v>
+        <v>0.2316423636194965</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -872,7 +872,7 @@
         <v>10525573.832895</v>
       </c>
       <c r="F20">
-        <v>0.2314909450081434</v>
+        <v>0.2316423636194965</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -892,7 +892,7 @@
         <v>2018152.754353125</v>
       </c>
       <c r="F21">
-        <v>0.04438561694526597</v>
+        <v>0.04441464965098007</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -910,7 +910,7 @@
         <v>176711.1208484001</v>
       </c>
       <c r="F22">
-        <v>0.003886441253283492</v>
+        <v>0.003888983380957889</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -928,7 +928,7 @@
         <v>2194863.875201525</v>
       </c>
       <c r="F23">
-        <v>0.04827205819854945</v>
+        <v>0.04830363303193796</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -948,7 +948,7 @@
         <v>1248242.161125</v>
       </c>
       <c r="F24">
-        <v>0.02745282699692559</v>
+        <v>0.02747078393662985</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -966,7 +966,7 @@
         <v>1248242.161125</v>
       </c>
       <c r="F25">
-        <v>0.02745282699692559</v>
+        <v>0.02747078393662985</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -977,7 +977,7 @@
         <v>22</v>
       </c>
       <c r="E26">
-        <v>45468620.09019286</v>
+        <v>45438898.43131052</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1020,7 +1020,7 @@
         <v>1809929.187499924</v>
       </c>
       <c r="F30">
-        <v>0.700735989623113</v>
+        <v>0.7769153898704085</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1038,7 +1038,7 @@
         <v>1809929.187499924</v>
       </c>
       <c r="F31">
-        <v>0.700735989623113</v>
+        <v>0.7769153898704085</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1049,16 +1049,16 @@
         <v>27</v>
       </c>
       <c r="C32">
-        <v>3984372.389860813</v>
+        <v>2678895.298605489</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>772968.2436329977</v>
+        <v>519705.6879294649</v>
       </c>
       <c r="F32">
-        <v>0.2992640103768871</v>
+        <v>0.2230846101295916</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1067,16 +1067,16 @@
         <v>18</v>
       </c>
       <c r="C33">
-        <v>3984372.389860813</v>
+        <v>2678895.298605489</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>772968.2436329977</v>
+        <v>519705.6879294649</v>
       </c>
       <c r="F33">
-        <v>0.2992640103768871</v>
+        <v>0.2230846101295916</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1087,7 +1087,7 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2582897.431132922</v>
+        <v>2329634.875429389</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1112,13 +1112,13 @@
         <v>30</v>
       </c>
       <c r="B38">
-        <v>1736697.289069314</v>
+        <v>1824833.689404883</v>
       </c>
       <c r="C38">
-        <v>48627524.0939408</v>
+        <v>51095343.30333674</v>
       </c>
       <c r="D38">
-        <v>26.88306854929533</v>
+        <v>5.364962004765724</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1126,13 +1126,13 @@
         <v>31</v>
       </c>
       <c r="B39">
-        <v>8403.78499228281</v>
+        <v>19158.22758091451</v>
       </c>
       <c r="C39">
-        <v>2227003.022954945</v>
+        <v>5076930.308942344</v>
       </c>
       <c r="D39">
-        <v>1.231168480014091</v>
+        <v>0.5330728095243165</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1146,7 +1146,7 @@
         <v>-3197430.642509053</v>
       </c>
       <c r="D40">
-        <v>-1.767656255295524</v>
+        <v>-0.3357271485210765</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1154,13 +1154,13 @@
         <v>33</v>
       </c>
       <c r="B41">
-        <v>6956428.727934339</v>
+        <v>6565956.195095627</v>
       </c>
       <c r="C41">
-        <v>-37564715.13084543</v>
+        <v>-35456163.45351639</v>
       </c>
       <c r="D41">
-        <v>-20.76714434291137</v>
+        <v>-3.722863131256351</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1174,7 +1174,7 @@
         <v>-1239968.619198864</v>
       </c>
       <c r="D42">
-        <v>-0.6854998688500307</v>
+        <v>-0.1301955148752136</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1188,7 +1188,7 @@
         <v>-1146348.548058954</v>
       </c>
       <c r="D43">
-        <v>-0.6337432796150525</v>
+        <v>-0.1203654972634857</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1196,13 +1196,13 @@
         <v>36</v>
       </c>
       <c r="B44">
-        <v>619130.716348963</v>
+        <v>565659.3778841281</v>
       </c>
       <c r="C44">
-        <v>-3343305.8682844</v>
+        <v>-3054560.640574292</v>
       </c>
       <c r="D44">
-        <v>-1.848301399526736</v>
+        <v>-0.3207259354467191</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1216,7 +1216,7 @@
         <v>-2553905.125752645</v>
       </c>
       <c r="D45">
-        <v>-1.411891883110701</v>
+        <v>-0.2681575869271945</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1224,7 +1224,7 @@
         <v>16</v>
       </c>
       <c r="C46">
-        <v>1808853.182246394</v>
+        <v>9523896.582668895</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1252,7 +1252,7 @@
         <v>456960</v>
       </c>
       <c r="C50">
-        <v>68544</v>
+        <v>51864.96</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1263,7 +1263,7 @@
         <v>16</v>
       </c>
       <c r="C51">
-        <v>68544</v>
+        <v>51864.96</v>
       </c>
       <c r="D51">
         <v>1</v>

--- a/exposan/bwaise/results/sysC_lca.xlsx
+++ b/exposan/bwaise/results/sysC_lca.xlsx
@@ -88,10 +88,10 @@
     <t>Transportation</t>
   </si>
   <si>
-    <t>item37 [tonne*km]</t>
-  </si>
-  <si>
-    <t>item38 [tonne*km]</t>
+    <t>item35 [tonne*km]</t>
+  </si>
+  <si>
+    <t>item36 [tonne*km]</t>
   </si>
   <si>
     <t>C3</t>
@@ -1112,13 +1112,13 @@
         <v>30</v>
       </c>
       <c r="B38">
-        <v>1824833.689404883</v>
+        <v>1758560.147714197</v>
       </c>
       <c r="C38">
-        <v>51095343.30333674</v>
+        <v>49239684.13599752</v>
       </c>
       <c r="D38">
-        <v>5.364962004765724</v>
+        <v>6.683454743366442</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1126,13 +1126,13 @@
         <v>31</v>
       </c>
       <c r="B39">
-        <v>19158.22758091451</v>
+        <v>18842.31234189983</v>
       </c>
       <c r="C39">
-        <v>5076930.308942344</v>
+        <v>4993212.770603455</v>
       </c>
       <c r="D39">
-        <v>0.5330728095243165</v>
+        <v>0.6777442252504305</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1146,7 +1146,7 @@
         <v>-3197430.642509053</v>
       </c>
       <c r="D40">
-        <v>-0.3357271485210765</v>
+        <v>-0.4339971583741237</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1160,7 +1160,7 @@
         <v>-35456163.45351639</v>
       </c>
       <c r="D41">
-        <v>-3.722863131256351</v>
+        <v>-4.812574815883907</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1174,7 +1174,7 @@
         <v>-1239968.619198864</v>
       </c>
       <c r="D42">
-        <v>-0.1301955148752136</v>
+        <v>-0.1683047788592866</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1188,7 +1188,7 @@
         <v>-1146348.548058954</v>
       </c>
       <c r="D43">
-        <v>-0.1203654972634857</v>
+        <v>-0.1555974368136681</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1196,13 +1196,13 @@
         <v>36</v>
       </c>
       <c r="B44">
-        <v>565659.3778841281</v>
+        <v>605866.7719405416</v>
       </c>
       <c r="C44">
-        <v>-3054560.640574292</v>
+        <v>-3271680.568478925</v>
       </c>
       <c r="D44">
-        <v>-0.3207259354467191</v>
+        <v>-0.4440753306578317</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1216,7 +1216,7 @@
         <v>-2553905.125752645</v>
       </c>
       <c r="D45">
-        <v>-0.2681575869271945</v>
+        <v>-0.3466494480280564</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1224,7 +1224,7 @@
         <v>16</v>
       </c>
       <c r="C46">
-        <v>9523896.582668895</v>
+        <v>7367399.94908615</v>
       </c>
       <c r="D46">
         <v>1</v>

--- a/exposan/bwaise/results/sysC_lca.xlsx
+++ b/exposan/bwaise/results/sysC_lca.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t>Quantity</t>
   </si>
@@ -88,10 +88,7 @@
     <t>Transportation</t>
   </si>
   <si>
-    <t>item35 [tonne*km]</t>
-  </si>
-  <si>
-    <t>item36 [tonne*km]</t>
+    <t>Trucking [tonne*km]</t>
   </si>
   <si>
     <t>C3</t>
@@ -491,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1008,103 +1005,97 @@
         <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30">
-        <v>9329531.894329507</v>
+        <v>9329531.894329509</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.7769153898704085</v>
       </c>
       <c r="E30">
-        <v>1809929.187499924</v>
+        <v>1809929.187499925</v>
       </c>
       <c r="F30">
-        <v>0.7769153898704085</v>
+        <v>0.7769153898704086</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31">
+        <v>2678895.298605489</v>
+      </c>
+      <c r="D31">
+        <v>0.2230846101295915</v>
+      </c>
+      <c r="E31">
+        <v>519705.6879294649</v>
+      </c>
+      <c r="F31">
+        <v>0.2230846101295916</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C31">
-        <v>9329531.894329507</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1809929.187499924</v>
-      </c>
-      <c r="F31">
-        <v>0.7769153898704085</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32">
+        <v>12008427.192935</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>2329634.87542939</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33">
+        <v>2329634.875429389</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C32">
-        <v>2678895.298605489</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>519705.6879294649</v>
-      </c>
-      <c r="F32">
-        <v>0.2230846101295916</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33">
-        <v>2678895.298605489</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>519705.6879294649</v>
-      </c>
-      <c r="F33">
-        <v>0.2230846101295916</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2329634.875429389</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
+      <c r="C36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>3</v>
+      <c r="B37">
+        <v>1758560.147714197</v>
+      </c>
+      <c r="C37">
+        <v>49239684.13599751</v>
+      </c>
+      <c r="D37">
+        <v>6.683454743366449</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1112,13 +1103,13 @@
         <v>30</v>
       </c>
       <c r="B38">
-        <v>1758560.147714197</v>
+        <v>18842.31234189983</v>
       </c>
       <c r="C38">
-        <v>49239684.13599752</v>
+        <v>4993212.770603454</v>
       </c>
       <c r="D38">
-        <v>6.683454743366442</v>
+        <v>0.6777442252504312</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1126,13 +1117,13 @@
         <v>31</v>
       </c>
       <c r="B39">
-        <v>18842.31234189983</v>
+        <v>2131620.428339369</v>
       </c>
       <c r="C39">
-        <v>4993212.770603455</v>
+        <v>-3197430.642509053</v>
       </c>
       <c r="D39">
-        <v>0.6777442252504305</v>
+        <v>-0.4339971583741242</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1140,13 +1131,13 @@
         <v>32</v>
       </c>
       <c r="B40">
-        <v>2131620.428339369</v>
+        <v>6565956.195095627</v>
       </c>
       <c r="C40">
-        <v>-3197430.642509053</v>
+        <v>-35456163.45351639</v>
       </c>
       <c r="D40">
-        <v>-0.4339971583741237</v>
+        <v>-4.812574815883912</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1154,13 +1145,13 @@
         <v>33</v>
       </c>
       <c r="B41">
-        <v>6565956.195095627</v>
+        <v>253054.820244666</v>
       </c>
       <c r="C41">
-        <v>-35456163.45351639</v>
+        <v>-1239968.619198864</v>
       </c>
       <c r="D41">
-        <v>-4.812574815883907</v>
+        <v>-0.1683047788592867</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1168,13 +1159,13 @@
         <v>34</v>
       </c>
       <c r="B42">
-        <v>253054.820244666</v>
+        <v>764232.3653726361</v>
       </c>
       <c r="C42">
-        <v>-1239968.619198864</v>
+        <v>-1146348.548058954</v>
       </c>
       <c r="D42">
-        <v>-0.1683047788592866</v>
+        <v>-0.1555974368136683</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1182,13 +1173,13 @@
         <v>35</v>
       </c>
       <c r="B43">
-        <v>764232.3653726361</v>
+        <v>605866.7719405416</v>
       </c>
       <c r="C43">
-        <v>-1146348.548058954</v>
+        <v>-3271680.568478925</v>
       </c>
       <c r="D43">
-        <v>-0.1555974368136681</v>
+        <v>-0.4440753306578322</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1196,60 +1187,57 @@
         <v>36</v>
       </c>
       <c r="B44">
-        <v>605866.7719405416</v>
+        <v>521205.1277046214</v>
       </c>
       <c r="C44">
-        <v>-3271680.568478925</v>
+        <v>-2553905.125752645</v>
       </c>
       <c r="D44">
-        <v>-0.4440753306578317</v>
+        <v>-0.3466494480280568</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45">
+        <v>7367399.949086143</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B45">
-        <v>521205.1277046214</v>
-      </c>
-      <c r="C45">
-        <v>-2553905.125752645</v>
-      </c>
-      <c r="D45">
-        <v>-0.3466494480280564</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46">
-        <v>7367399.94908615</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
+      <c r="B48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>3</v>
+      <c r="B49">
+        <v>456960</v>
+      </c>
+      <c r="C49">
+        <v>51864.96</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50">
-        <v>456960</v>
+        <v>16</v>
       </c>
       <c r="C50">
         <v>51864.96</v>
@@ -1258,19 +1246,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51">
-        <v>51864.96</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -1281,8 +1258,7 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A30:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
